--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4E4E21-0224-4D48-B066-18EDB8E0B715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C7E51B-4158-456D-91DC-F607B31D052E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,13 +84,175 @@
   </si>
   <si>
     <t>/ˈkwɪə.ri/</t>
+  </si>
+  <si>
+    <t>specific</t>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="GWIPA"/>
+        <charset val="2"/>
+      </rPr>
+      <t>spE'sIfIk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <t>niche</t>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="GWIPA"/>
+        <charset val="2"/>
+      </rPr>
+      <t>ni:S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <t>bargaining</t>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="GWIPA"/>
+        <charset val="2"/>
+      </rPr>
+      <t>'bA:gEnIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <t>[U.]</t>
+  </si>
+  <si>
+    <t>suite</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /swi:t/ </t>
+  </si>
+  <si>
+    <t>automate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /'O:tEmeIt/ </t>
+  </si>
+  <si>
+    <t>n.</t>
+  </si>
+  <si>
+    <t>vt.</t>
+  </si>
+  <si>
+    <t>modular</t>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="GWIPA"/>
+        <charset val="2"/>
+      </rPr>
+      <t>'mOdjulE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <t>adj.</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="GWIPA"/>
+        <charset val="2"/>
+      </rPr>
+      <t>'kQrEktE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <t>n.single</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +280,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="GWIPA"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -127,7 +301,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -150,11 +324,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -167,9 +365,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -450,14 +653,14 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1">
@@ -539,45 +742,83 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1">

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C7E51B-4158-456D-91DC-F607B31D052E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EEE620-AB56-4D6D-A72B-745D3C7F63F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,72 @@
   </si>
   <si>
     <t>n.single</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="GWIPA"/>
+        <charset val="2"/>
+      </rPr>
+      <t>'fQmElI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="GWIPA"/>
+        <charset val="2"/>
+      </rPr>
+      <t>'epIsEud</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <t>n.C.</t>
+  </si>
+  <si>
+    <t>military</t>
+  </si>
+  <si>
+    <t>/'MIlEtri/</t>
+  </si>
+  <si>
+    <t>[adj.][n.]</t>
   </si>
 </sst>
 </file>
@@ -653,7 +719,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -822,98 +888,114 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="17.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" ht="17.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" ht="17.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" ht="17.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EEE620-AB56-4D6D-A72B-745D3C7F63F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E8D4D2-1BD5-44C6-87BB-F98C96C8CCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,6 +312,15 @@
   </si>
   <si>
     <t>[adj.][n.]</t>
+  </si>
+  <si>
+    <t>vault</t>
+  </si>
+  <si>
+    <t>/vO:lt/</t>
+  </si>
+  <si>
+    <t>vt. vi.</t>
   </si>
 </sst>
 </file>
@@ -719,7 +728,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -922,9 +931,15 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1">

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E8D4D2-1BD5-44C6-87BB-F98C96C8CCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198DCFFE-5BD8-451B-A868-402DE250EC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t>vt. vi.</t>
+  </si>
+  <si>
+    <t>festival</t>
+  </si>
+  <si>
+    <t>/'festIvl/</t>
   </si>
 </sst>
 </file>
@@ -728,7 +734,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -943,9 +949,15 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1">

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198DCFFE-5BD8-451B-A868-402DE250EC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6184433-477B-4AA4-BDAA-CD7488EDC904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,9 +245,6 @@
     </r>
   </si>
   <si>
-    <t>n.single</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -327,6 +324,18 @@
   </si>
   <si>
     <t>/'festIvl/</t>
+  </si>
+  <si>
+    <t>senator</t>
+  </si>
+  <si>
+    <t>/'senEtE/</t>
+  </si>
+  <si>
+    <t>senate</t>
+  </si>
+  <si>
+    <t>n.Singular</t>
   </si>
 </sst>
 </file>
@@ -734,7 +743,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -898,62 +907,62 @@
         <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
@@ -961,15 +970,27 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1">

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6184433-477B-4AA4-BDAA-CD7488EDC904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A97E03D-5694-45E5-A255-680D3BD5B5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>n.Singular</t>
+  </si>
+  <si>
+    <t>agile</t>
+  </si>
+  <si>
+    <t>/'QdZaIl/</t>
   </si>
 </sst>
 </file>
@@ -743,7 +749,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -816,7 +822,9 @@
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
@@ -994,9 +1002,15 @@
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1">

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A97E03D-5694-45E5-A255-680D3BD5B5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D80FBC-B6D5-4179-A6ED-0EA0C250134D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>/'QdZaIl/</t>
+  </si>
+  <si>
+    <t>increment</t>
+  </si>
+  <si>
+    <t>/'iNkrEmEt/</t>
   </si>
 </sst>
 </file>
@@ -749,7 +755,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1014,9 +1020,15 @@
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1">

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D80FBC-B6D5-4179-A6ED-0EA0C250134D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B26581F-0D8E-4757-A124-DE6A0C8F78A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,6 +348,15 @@
   </si>
   <si>
     <t>/'iNkrEmEt/</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>/skeIl/</t>
+  </si>
+  <si>
+    <t>n.vt.</t>
   </si>
 </sst>
 </file>
@@ -755,7 +764,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1032,9 +1041,15 @@
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1">

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B26581F-0D8E-4757-A124-DE6A0C8F78A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DD8B21-D174-4C20-81A7-28310214DB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +221,9 @@
     <t>character</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <r>
       <t>/</t>
     </r>
@@ -231,7 +234,7 @@
         <rFont val="GWIPA"/>
         <charset val="2"/>
       </rPr>
-      <t>'kQrEktE</t>
+      <t>'fQmElI</t>
     </r>
     <r>
       <rPr>
@@ -245,7 +248,7 @@
     </r>
   </si>
   <si>
-    <t>family</t>
+    <t>episode</t>
   </si>
   <si>
     <r>
@@ -258,7 +261,7 @@
         <rFont val="GWIPA"/>
         <charset val="2"/>
       </rPr>
-      <t>'fQmElI</t>
+      <t>'epIsEud</t>
     </r>
     <r>
       <rPr>
@@ -272,33 +275,6 @@
     </r>
   </si>
   <si>
-    <t>episode</t>
-  </si>
-  <si>
-    <r>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="GWIPA"/>
-        <charset val="2"/>
-      </rPr>
-      <t>'epIsEud</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
     <t>n.C.</t>
   </si>
   <si>
@@ -335,9 +311,6 @@
     <t>senate</t>
   </si>
   <si>
-    <t>n.Singular</t>
-  </si>
-  <si>
     <t>agile</t>
   </si>
   <si>
@@ -357,13 +330,25 @@
   </si>
   <si>
     <t>n.vt.</t>
+  </si>
+  <si>
+    <t>n.singular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/'kQrEktE/  </t>
+  </si>
+  <si>
+    <t>mispronounce</t>
+  </si>
+  <si>
+    <t>/kE'RQ/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +387,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="GWIPA"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="GWIPA"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -463,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -479,6 +477,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -761,332 +773,367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1">
+    <row r="2" spans="1:5" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1">
+    <row r="7" spans="1:5" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" ht="17.25">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="17.25">
       <c r="A27" s="2"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" ht="17.25">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.25">
       <c r="A28" s="2"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" ht="17.25">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.25">
       <c r="A29" s="2"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="17.25">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.25">
       <c r="A30" s="2"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DD8B21-D174-4C20-81A7-28310214DB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CAD0EC-4AF6-4E9C-876B-ACE06303E588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,7 +105,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -132,7 +132,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -159,7 +159,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -207,7 +207,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -240,7 +240,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -267,7 +267,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -342,23 +342,35 @@
   </si>
   <si>
     <t>/kE'RQ/</t>
+  </si>
+  <si>
+    <t>also</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'O:lsEu/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -372,7 +384,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1F2328"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -461,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -479,12 +491,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -495,7 +501,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -776,25 +782,24 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="3" width="19.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -804,7 +809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1">
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -817,29 +822,29 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1">
+    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1">
+    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -850,14 +855,14 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1">
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
@@ -865,18 +870,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1">
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1">
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -887,7 +892,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1">
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -898,7 +903,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1">
+    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -911,7 +916,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1">
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
@@ -924,7 +929,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1">
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
@@ -937,7 +942,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1">
+    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -950,14 +955,14 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1">
+    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -965,7 +970,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1">
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -976,7 +981,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1">
+    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -989,7 +994,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1">
+    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1002,7 +1007,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1">
+    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1015,7 +1020,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1">
+    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1028,7 +1033,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1">
+    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -1041,7 +1046,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1">
+    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1054,7 +1059,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1">
+    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1067,7 +1072,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1">
+    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -1080,7 +1085,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1">
+    <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -1093,42 +1098,48 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="8"/>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1">
+    <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="17.25">
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="17.25">
+    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="17.25">
+    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="17.25">
+    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CAD0EC-4AF6-4E9C-876B-ACE06303E588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69E83C9-AA6D-4C18-8858-973D0591612F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,7 +105,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -132,7 +132,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -159,7 +159,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -207,7 +207,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -240,7 +240,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -267,7 +267,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -354,23 +354,47 @@
   <si>
     <t>adv.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrity</t>
+  </si>
+  <si>
+    <t>/In'tegrEtI/</t>
+  </si>
+  <si>
+    <t>n.U.</t>
+  </si>
+  <si>
+    <t>asymmetric</t>
+  </si>
+  <si>
+    <t>/;eIsI'MetrIk/</t>
+  </si>
+  <si>
+    <t>asymmetry</t>
+  </si>
+  <si>
+    <t>/;eI'sImEtri/</t>
+  </si>
+  <si>
+    <t>C.U.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -384,7 +408,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1F2328"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -501,7 +525,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -782,17 +806,17 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="3" width="19.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="3" width="19.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,7 +833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -822,7 +846,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -833,7 +857,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -844,7 +868,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,7 +879,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,7 +894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -881,7 +905,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -892,7 +916,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -903,7 +927,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -916,7 +940,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
@@ -929,7 +953,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="16.5" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
@@ -942,7 +966,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="16.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -955,7 +979,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -970,7 +994,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="16.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -981,7 +1005,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="16.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -994,7 +1018,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1007,7 +1031,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1020,7 +1044,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16.5" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1033,7 +1057,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16.5" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -1046,7 +1070,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16.5" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1059,7 +1083,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16.5" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1072,7 +1096,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16.5" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -1085,7 +1109,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16.5" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -1098,7 +1122,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16.5" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
@@ -1111,35 +1135,53 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="8"/>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="8"/>
+    <row r="27" spans="1:5" ht="17.25">
+      <c r="A27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="8"/>
+    <row r="28" spans="1:5" ht="17.25">
+      <c r="A28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="C28" s="8"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="17.25">
       <c r="A29" s="2"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="17.25">
       <c r="A30" s="2"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69E83C9-AA6D-4C18-8858-973D0591612F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0029F26B-8CF6-4F70-A6E2-73D858F8F84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7485" yWindow="6075" windowWidth="13800" windowHeight="9120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,6 +378,12 @@
   </si>
   <si>
     <t>C.U.</t>
+  </si>
+  <si>
+    <t>swap</t>
+  </si>
+  <si>
+    <t>/swO:p</t>
   </si>
 </sst>
 </file>
@@ -805,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1175,10 +1181,16 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="17.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="17.25">

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0029F26B-8CF6-4F70-A6E2-73D858F8F84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A55ABF6-DC9D-4165-9037-CAC92C26E352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="6075" windowWidth="13800" windowHeight="9120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>/swO:p</t>
+  </si>
+  <si>
+    <t>/tE/</t>
   </si>
 </sst>
 </file>
@@ -811,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1057,7 +1060,9 @@
       <c r="B19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
       </c>

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A55ABF6-DC9D-4165-9037-CAC92C26E352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E4991B-AA9D-4E41-BD6F-DFCCC9AC97C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>part of speech</t>
-  </si>
-  <si>
-    <t>meaning</t>
   </si>
   <si>
     <t>[n.] [v.]</t>
@@ -383,10 +380,25 @@
     <t>swap</t>
   </si>
   <si>
-    <t>/swO:p</t>
-  </si>
-  <si>
     <t>/tE/</t>
+  </si>
+  <si>
+    <t>gnome</t>
+  </si>
+  <si>
+    <t>/swO:p/</t>
+  </si>
+  <si>
+    <t>/nEum/</t>
+  </si>
+  <si>
+    <t>/swQp/</t>
+  </si>
+  <si>
+    <t>g' is silent</t>
+  </si>
+  <si>
+    <t>remark</t>
   </si>
 </sst>
 </file>
@@ -506,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -532,6 +544,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -823,6 +836,7 @@
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="3" width="19.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1">
@@ -833,13 +847,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1">
@@ -847,11 +861,11 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -897,7 +911,7 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -905,10 +919,10 @@
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="2"/>
@@ -916,10 +930,10 @@
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="2"/>
@@ -927,10 +941,10 @@
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="2"/>
@@ -938,77 +952,77 @@
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1">
       <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="2"/>
@@ -1016,194 +1030,204 @@
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="C19" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1">
       <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" customHeight="1">
       <c r="A26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="17.25">
       <c r="A27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="17.25">
       <c r="A28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="17.25">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.25">
+      <c r="A30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="17.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="8"/>
+      <c r="B30" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="C30" s="8"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E4991B-AA9D-4E41-BD6F-DFCCC9AC97C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA644D5-3D59-4385-825A-ABF9E281A355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,12 +401,30 @@
   <si>
     <t>remark</t>
   </si>
+  <si>
+    <t>trivial</t>
+  </si>
+  <si>
+    <t>/'trIviEl/</t>
+  </si>
+  <si>
+    <t>/trI'viEl/</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>/'ObdZekt/ n.</t>
+  </si>
+  <si>
+    <t>/Eb'dZekt/ vi.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,6 +477,12 @@
       <name val="GWIPA"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
+      <name val="GWIPA"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -467,7 +492,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -514,11 +539,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -545,6 +596,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1234,4 +1294,261 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EC5A63-60FD-4B67-81C7-9531B7E4CFB3}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="3" width="19.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="17.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA644D5-3D59-4385-825A-ABF9E281A355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B586BB9-7991-4130-A66D-780F5717BD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t>/Eb'dZekt/ vi.</t>
+  </si>
+  <si>
+    <t>pedestrian</t>
+  </si>
+  <si>
+    <t>/pE'destrIEn/ n. adj.</t>
   </si>
 </sst>
 </file>
@@ -596,14 +602,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1301,7 +1307,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1343,10 +1349,10 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="9"/>
@@ -1354,8 +1360,8 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="14" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="9"/>
@@ -1363,8 +1369,12 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B586BB9-7991-4130-A66D-780F5717BD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FE8FFE-B39A-4255-A9CE-4BD5AC86FAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,6 +424,21 @@
   </si>
   <si>
     <t>/pE'destrIEn/ n. adj.</t>
+  </si>
+  <si>
+    <t>cloth</t>
+  </si>
+  <si>
+    <t>clothe</t>
+  </si>
+  <si>
+    <t>/KlOT/ n.</t>
+  </si>
+  <si>
+    <t>/klEuT/</t>
+  </si>
+  <si>
+    <t>/klED/ vt.</t>
   </si>
 </sst>
 </file>
@@ -575,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -611,6 +626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1307,7 +1323,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1380,15 +1396,25 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>91</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="C7" s="11"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FE8FFE-B39A-4255-A9CE-4BD5AC86FAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9794F040-FC8E-4A02-80C5-E81457688820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,24 @@
   </si>
   <si>
     <t>/klED/ vt.</t>
+  </si>
+  <si>
+    <t>occur</t>
+  </si>
+  <si>
+    <t>/E:'kE:/</t>
+  </si>
+  <si>
+    <t>colon</t>
+  </si>
+  <si>
+    <t>/'kEulEn/</t>
+  </si>
+  <si>
+    <t>occurrence</t>
+  </si>
+  <si>
+    <t>/E'kVrEns/</t>
   </si>
 </sst>
 </file>
@@ -590,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -620,13 +638,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1320,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EC5A63-60FD-4B67-81C7-9531B7E4CFB3}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1365,7 +1384,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>83</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -1376,7 +1395,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="14" t="s">
         <v>85</v>
       </c>
@@ -1402,7 +1421,7 @@
       <c r="B6" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D6" s="2"/>
@@ -1415,47 +1434,65 @@
       <c r="B7" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A11" s="6"/>
+      <c r="A11" s="1"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A13" s="1"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="2"/>
@@ -1464,14 +1501,14 @@
     <row r="14" spans="1:5" ht="16.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="12"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
@@ -1499,14 +1536,14 @@
     <row r="19" spans="1:5" ht="16.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="12"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
@@ -1546,13 +1583,13 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A26" s="2"/>
+      <c r="A26" s="1"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="17.25">
+    <row r="27" spans="1:5" ht="16.5" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1569,16 +1606,23 @@
     <row r="29" spans="1:5" ht="17.25">
       <c r="A29" s="2"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="12"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="17.25">
       <c r="A30" s="2"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9794F040-FC8E-4A02-80C5-E81457688820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBC58E8-5A1A-4F34-8101-1498BF7DA4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,6 +457,18 @@
   </si>
   <si>
     <t>/E'kVrEns/</t>
+  </si>
+  <si>
+    <t>synchronous</t>
+  </si>
+  <si>
+    <t>asynchronous</t>
+  </si>
+  <si>
+    <t>/eI'sINkREnEs/</t>
+  </si>
+  <si>
+    <t>/'sINkrEnEs/</t>
   </si>
 </sst>
 </file>
@@ -608,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -646,6 +658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1342,12 +1355,12 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="19.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
@@ -1478,17 +1491,29 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1">

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Words\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Notes\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBC58E8-5A1A-4F34-8101-1498BF7DA4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A16DB83-9E3B-43BE-A66A-7AC7A18FD1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,9 +438,6 @@
     <t>/klEuT/</t>
   </si>
   <si>
-    <t>/klED/ vt.</t>
-  </si>
-  <si>
     <t>occur</t>
   </si>
   <si>
@@ -469,13 +466,22 @@
   </si>
   <si>
     <t>/'sINkrEnEs/</t>
+  </si>
+  <si>
+    <t>villain</t>
+  </si>
+  <si>
+    <t>/'vIlEn/</t>
+  </si>
+  <si>
+    <t>/klEuD/ vt.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,6 +539,39 @@
       <color rgb="FF1F2328"/>
       <name val="GWIPA"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="GWIPA"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="GWIPA"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -620,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -650,15 +689,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1355,299 +1410,304 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="31.5" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>83</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A4" s="18"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="14" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A8" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A9" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A10" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A11" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A12" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A13" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A14" s="1"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="1"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A16" s="1"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A17" s="1"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A18" s="1"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A19" s="1"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A20" s="1"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" s="1"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A22" s="1"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A23" s="1"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A24" s="1"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A25" s="1"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A26" s="1"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A27" s="2"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.25">
-      <c r="A28" s="2"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" ht="18">
+      <c r="A28" s="16"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="17.25">
-      <c r="A29" s="2"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" ht="18">
+      <c r="A29" s="16"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="17.25">
-      <c r="A30" s="2"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" ht="18">
+      <c r="A30" s="16"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="17.25">
-      <c r="A31" s="2"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:5" ht="18">
+      <c r="A31" s="16"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="13"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Notes\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A16DB83-9E3B-43BE-A66A-7AC7A18FD1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E57C77F-6D1A-44DC-8762-FFF4BAA722AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -475,6 +475,12 @@
   </si>
   <si>
     <t>/klEuD/ vt.</t>
+  </si>
+  <si>
+    <t>sappire</t>
+  </si>
+  <si>
+    <t>/'sQfaIE/</t>
   </si>
 </sst>
 </file>
@@ -703,17 +709,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1410,7 +1416,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1453,7 +1459,7 @@
       <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="26" t="s">
         <v>83</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -1464,7 +1470,7 @@
       <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A4" s="22"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="14" t="s">
         <v>85</v>
       </c>
@@ -1490,7 +1496,7 @@
       <c r="B6" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D6" s="20"/>
@@ -1503,7 +1509,7 @@
       <c r="B7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
@@ -1560,7 +1566,7 @@
       <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1573,7 +1579,7 @@
       <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="24" t="s">
         <v>102</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1584,10 +1590,16 @@
       <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
@@ -1707,7 +1719,7 @@
       <c r="B31" s="8"/>
       <c r="C31" s="18"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="27"/>
+      <c r="E31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Notes\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E57C77F-6D1A-44DC-8762-FFF4BAA722AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4865F5-AB3C-4D5F-9450-4140B46BCF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="110">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,6 +481,15 @@
   </si>
   <si>
     <t>/'sQfaIE/</t>
+  </si>
+  <si>
+    <t>cleanse</t>
+  </si>
+  <si>
+    <t>/klenz/</t>
+  </si>
+  <si>
+    <t>to clean your skin or wound</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1425,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1425,7 +1434,7 @@
     <col min="2" max="2" width="19.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1">
@@ -1603,11 +1612,19 @@
       <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1">
       <c r="A16" s="15"/>
@@ -1726,6 +1743,6 @@
     <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Notes\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4865F5-AB3C-4D5F-9450-4140B46BCF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094BDD79-363B-498E-BE62-61D57FCE0DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="113">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,6 +490,15 @@
   </si>
   <si>
     <t>to clean your skin or wound</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>/'fO:mQt/</t>
+  </si>
+  <si>
+    <t>/'fO:mAt/</t>
   </si>
 </sst>
 </file>
@@ -1424,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EC5A63-60FD-4B67-81C7-9531B7E4CFB3}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1627,9 +1636,15 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
     </row>

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Notes\Words\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094BDD79-363B-498E-BE62-61D57FCE0DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCC197B-C42F-4D8F-B549-134868EBC39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -740,7 +740,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1434,7 +1434,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Notes\Words\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCC197B-C42F-4D8F-B549-134868EBC39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -504,7 +498,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -798,7 +792,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -833,7 +827,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1010,14 +1004,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -1430,7 +1424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EC5A63-60FD-4B67-81C7-9531B7E4CFB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="116">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -493,6 +493,15 @@
   </si>
   <si>
     <t>/'fO:mAt/</t>
+  </si>
+  <si>
+    <t>limb</t>
+  </si>
+  <si>
+    <t>/lIm/</t>
+  </si>
+  <si>
+    <t>"b" is silent.</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1013,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1428,7 +1437,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1643,11 +1652,19 @@
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1">
       <c r="A18" s="15"/>

--- a/Words/Mispronounced words.xlsx
+++ b/Words/Mispronounced words.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
   <si>
     <t>Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -502,6 +502,18 @@
   </si>
   <si>
     <t>"b" is silent.</t>
+  </si>
+  <si>
+    <t>debris</t>
+  </si>
+  <si>
+    <t>/debri:/</t>
+  </si>
+  <si>
+    <t>s' is silent.</t>
+  </si>
+  <si>
+    <t>U.</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1025,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1437,7 +1449,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1667,11 +1679,19 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1">
       <c r="A19" s="15"/>
